--- a/election_result.xlsx
+++ b/election_result.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Data Science Project\Election System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82E6C4D-7B4E-4DD2-994D-F743B9387031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>sr no</t>
   </si>
@@ -37,32 +31,23 @@
     <t>Vote</t>
   </si>
   <si>
+    <t>Siddarth Gadge</t>
+  </si>
+  <si>
+    <t>Harsh Mate</t>
+  </si>
+  <si>
     <t>Prachi Mate</t>
   </si>
   <si>
-    <t>Siddarth Gadge</t>
-  </si>
-  <si>
-    <t>Harsh Mate</t>
-  </si>
-  <si>
     <t>Vijay Gadge</t>
-  </si>
-  <si>
-    <t>BJP</t>
-  </si>
-  <si>
-    <t>SHIVSENA</t>
-  </si>
-  <si>
-    <t>NCP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,21 +110,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -211,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,21 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,16 +429,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8010187730</v>
+        <v>8625874209</v>
       </c>
       <c r="D2">
-        <v>54324578</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+        <v>4521</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -478,16 +443,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8625874209</v>
+        <v>7350459798</v>
       </c>
       <c r="D3">
-        <v>56458723</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>2154</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,16 +457,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>7350459798</v>
+        <v>8010187730</v>
       </c>
       <c r="D4">
-        <v>54129856</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
+        <v>6578</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -515,10 +474,7 @@
         <v>9665938943</v>
       </c>
       <c r="D5">
-        <v>54873245</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>7854</v>
       </c>
     </row>
   </sheetData>
